--- a/data_stefan/trt_mgmt.Anderson.ReduceN.xlsx
+++ b/data_stefan/trt_mgmt.Anderson.ReduceN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://practicalfarmers.sharepoint.com/sites/Research/Shared Documents/CooperatorsProgram/ResearchProjects/FieldCrops/2022-2024/Can We Reduce N Rates and Improve ROI/2023/Cooperators/Nathan Anderson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gina\Documents\_git-it\PFI_CanWeReduceN2\data_stefan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{401F9AEE-7283-4C01-86BF-3A32F4D64FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED28E3D1-AF9C-49D2-A293-204489D61CDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4055E7-F46A-470D-A83F-6F97FAB79DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{BA11CEDC-CF96-4B69-AD2E-31C9B22CE6DC}"/>
+    <workbookView xWindow="-26580" yWindow="2220" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{BA11CEDC-CF96-4B69-AD2E-31C9B22CE6DC}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>first_name</t>
   </si>
@@ -469,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +514,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -535,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,6 +579,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,9 +598,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,7 +638,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -736,7 +744,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -893,9 +901,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -915,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -950,24 +958,24 @@
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
@@ -978,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1086,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1088,7 +1096,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1106,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1108,7 +1116,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1132,7 +1140,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1151,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1161,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1164,7 +1172,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1188,7 +1196,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1199,7 +1207,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1209,7 +1217,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1219,7 +1227,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1243,7 +1251,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1254,7 +1262,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1272,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -1274,7 +1282,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -1288,7 +1296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -1300,7 +1308,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
@@ -1354,15 +1362,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3A4497-BC42-48F7-83C2-5123E16C814C}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>227.5233609</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>220.85891119999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>227.12804729999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>222.3690296</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>82</v>
       </c>
@@ -1445,6 +1453,18 @@
       <c r="D6" s="4">
         <v>233.2217751</v>
       </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="14">
+        <v>155</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1456,16 +1476,16 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
@@ -1487,7 +1507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>123</v>
       </c>
@@ -1498,7 +1518,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
@@ -1509,7 +1529,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>127</v>
       </c>
@@ -1520,7 +1540,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -1531,7 +1551,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>121</v>
       </c>
@@ -1542,7 +1562,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>123</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>125</v>
       </c>
@@ -1564,7 +1584,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>127</v>
       </c>
@@ -1575,7 +1595,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
@@ -1586,7 +1606,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>121</v>
       </c>
@@ -1597,7 +1617,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
@@ -1608,7 +1628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>125</v>
       </c>
@@ -1619,7 +1639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>127</v>
       </c>
@@ -1630,7 +1650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>129</v>
       </c>
@@ -1641,7 +1661,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>121</v>
       </c>
@@ -1652,7 +1672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -1663,7 +1683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -1674,7 +1694,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -1685,7 +1705,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>129</v>
       </c>
@@ -1696,7 +1716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>121</v>
       </c>
@@ -1707,7 +1727,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>123</v>
       </c>
@@ -1718,7 +1738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>125</v>
       </c>
@@ -1729,7 +1749,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>127</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>129</v>
       </c>
@@ -1751,7 +1771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -1762,7 +1782,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>123</v>
       </c>
@@ -1773,7 +1793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
@@ -1784,7 +1804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
@@ -1795,7 +1815,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>129</v>
       </c>
@@ -1820,19 +1840,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>84</v>
       </c>
@@ -1840,19 +1860,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -1860,13 +1880,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -1874,7 +1894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -1882,7 +1902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -1890,7 +1910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>96</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>97</v>
       </c>
@@ -1920,7 +1940,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -1931,7 +1951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
@@ -1942,7 +1962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>104</v>
       </c>
@@ -1950,7 +1970,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
@@ -1958,7 +1978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>106</v>
       </c>
@@ -1966,7 +1986,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>107</v>
       </c>
@@ -1974,7 +1994,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>108</v>
       </c>
@@ -1982,7 +2002,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>109</v>
       </c>
@@ -1993,7 +2013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>111</v>
       </c>
@@ -2004,42 +2024,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -2052,26 +2072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5c162411-790a-4090-8516-4c29411b79ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170271cd-7847-44f3-81b8-91d966c9299e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BE0433617A9764B83875192EFA7799D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9cbbb3ca604aca823f56b8e4b22fe47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="170271cd-7847-44f3-81b8-91d966c9299e" xmlns:ns3="5c162411-790a-4090-8516-4c29411b79ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad1e2fcf57f1a99c88c4998cae0ad6c1" ns2:_="" ns3:_="">
     <xsd:import namespace="170271cd-7847-44f3-81b8-91d966c9299e"/>
@@ -2306,10 +2306,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5c162411-790a-4090-8516-4c29411b79ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170271cd-7847-44f3-81b8-91d966c9299e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8474E227-F805-43E6-A496-5B3375444D2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{195F8346-137D-4DB2-A997-84A595176649}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="170271cd-7847-44f3-81b8-91d966c9299e"/>
+    <ds:schemaRef ds:uri="5c162411-790a-4090-8516-4c29411b79ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2332,5 +2363,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{195F8346-137D-4DB2-A997-84A595176649}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8474E227-F805-43E6-A496-5B3375444D2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>